--- a/19-dars/topshiriq.xlsx
+++ b/19-dars/topshiriq.xlsx
@@ -796,7 +796,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>